--- a/data/k7_modes.xlsx
+++ b/data/k7_modes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\team-126-dash-app_v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$320</definedName>
     <definedName name="k7_modes" localSheetId="0">Hoja1!$A$1:$F$320</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -230,12 +231,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,8 +269,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,16 +560,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J186" sqref="J186"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,22 +1255,22 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="3">
         <v>3</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>1348</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>1361</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>99.044819985304898</v>
       </c>
     </row>
@@ -1511,22 +1535,22 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="3">
         <v>0</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>1</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>1875</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>2194</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>85.460346399270705</v>
       </c>
     </row>
@@ -1571,22 +1595,22 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>1</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>1</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>1061</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>3121</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <v>33.995514258250502</v>
       </c>
     </row>
@@ -1631,22 +1655,22 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55">
+      <c r="A55" s="3">
+        <v>2</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3">
         <v>1013</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>1883</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>53.797132235793903</v>
       </c>
     </row>
@@ -1811,22 +1835,22 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="3">
         <v>5</v>
       </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3">
         <v>1168</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>2186</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>53.430924062213997</v>
       </c>
     </row>
@@ -1931,22 +1955,22 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="3">
         <v>7</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>1</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>1841</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>1869</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>98.501872659176001</v>
       </c>
     </row>
@@ -1991,22 +2015,22 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="3">
         <v>0</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>0</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>2171</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>2194</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>98.951686417502202</v>
       </c>
     </row>
@@ -2051,22 +2075,22 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="3">
         <v>1</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>0</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>3041</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>3121</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <v>97.436719000320394</v>
       </c>
     </row>
@@ -2111,22 +2135,22 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79">
+      <c r="A79" s="2">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2">
         <v>0</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>1120</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>1883</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <v>59.479553903345703</v>
       </c>
     </row>
@@ -2171,22 +2195,22 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="3">
         <v>3</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>0</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <v>1193</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>1361</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
         <v>87.656135194709705</v>
       </c>
     </row>
@@ -2231,22 +2255,22 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="3">
         <v>4</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>0</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="3">
         <v>1153</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>1616</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="3">
         <v>71.349009900990097</v>
       </c>
     </row>
@@ -2291,22 +2315,22 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="3">
         <v>5</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>0</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="3">
         <v>1573</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>2186</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
         <v>71.957913998170099</v>
       </c>
     </row>
@@ -2351,22 +2375,22 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="3">
         <v>6</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>0</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <v>1248</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>1379</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>90.500362581580802</v>
       </c>
     </row>
@@ -2411,22 +2435,22 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="3">
         <v>7</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>0</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>1858</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>1869</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>99.411449973247699</v>
       </c>
     </row>
@@ -2471,22 +2495,22 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="3">
         <v>0</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
         <v>1173</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>2194</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>53.463992707383703</v>
       </c>
     </row>
@@ -2531,42 +2555,42 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="2">
         <v>1</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <v>1461</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="2">
         <v>3121</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="2">
         <v>46.811919256648501</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="2">
         <v>1</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <v>1011</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2">
         <v>3121</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="2">
         <v>32.3934636334508</v>
       </c>
     </row>
@@ -2591,22 +2615,22 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>2</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="A103" s="3">
+        <v>2</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="3">
         <v>1184</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>1883</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>62.878385554965398</v>
       </c>
     </row>
@@ -2651,22 +2675,22 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="3">
         <v>3</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="3">
         <v>734</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>1361</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="3">
         <v>53.930933137398902</v>
       </c>
     </row>
@@ -2711,22 +2735,22 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="3">
         <v>4</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="3">
         <v>978</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <v>1616</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="3">
         <v>60.519801980197997</v>
       </c>
     </row>
@@ -2771,22 +2795,22 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="3">
         <v>5</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="3">
         <v>1271</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <v>2186</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="3">
         <v>58.142726440988099</v>
       </c>
     </row>
@@ -2891,22 +2915,22 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="2">
         <v>7</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="2">
         <v>859</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="2">
         <v>1869</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="2">
         <v>45.960406634563903</v>
       </c>
     </row>
@@ -3011,22 +3035,22 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="3">
         <v>1</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="3">
         <v>2327</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="3">
         <v>3121</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="3">
         <v>74.559436078179999</v>
       </c>
     </row>
@@ -3131,22 +3155,22 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="3">
         <v>3</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="3">
         <v>755</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="3">
         <v>1361</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="3">
         <v>55.473916238060198</v>
       </c>
     </row>
@@ -3191,22 +3215,22 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="3">
         <v>4</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="3">
         <v>1294</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="3">
         <v>1616</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="3">
         <v>80.074257425742502</v>
       </c>
     </row>
@@ -3251,42 +3275,42 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="2">
         <v>5</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="2">
         <v>986</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="2">
         <v>2186</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="2">
         <v>45.105215004574497</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="2">
         <v>5</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="2">
         <v>707</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="2">
         <v>2186</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="2">
         <v>32.342177493138102</v>
       </c>
     </row>
@@ -3311,22 +3335,22 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="3">
         <v>6</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="3">
         <v>765</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="3">
         <v>1379</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="3">
         <v>55.474981870920899</v>
       </c>
     </row>
@@ -3371,22 +3395,22 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="2">
         <v>7</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="2">
         <v>888</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="2">
         <v>1869</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="2">
         <v>47.512038523274398</v>
       </c>
     </row>
@@ -3431,22 +3455,22 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="3">
         <v>0</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="3">
         <v>2082</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="3">
         <v>2194</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="3">
         <v>94.895168641750203</v>
       </c>
     </row>
@@ -3471,22 +3495,22 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="3">
         <v>1</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="3">
         <v>3072</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="3">
         <v>3121</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="3">
         <v>98.429990387696193</v>
       </c>
     </row>
@@ -3511,22 +3535,22 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>2</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="A149" s="3">
+        <v>2</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="3">
         <v>1775</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="3">
         <v>1883</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="3">
         <v>94.264471587891606</v>
       </c>
     </row>
@@ -3551,22 +3575,22 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="3">
         <v>3</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="3">
         <v>1335</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="3">
         <v>1361</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="3">
         <v>98.089639970609795</v>
       </c>
     </row>
@@ -3591,22 +3615,22 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="3">
         <v>4</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="3">
         <v>1407</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="3">
         <v>1616</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="3">
         <v>87.066831683168303</v>
       </c>
     </row>
@@ -3631,22 +3655,22 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="3">
         <v>5</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="3">
         <v>1991</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="3">
         <v>2186</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="3">
         <v>91.079597438243297</v>
       </c>
     </row>
@@ -3671,22 +3695,22 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="3">
         <v>6</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="3">
         <v>1342</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="3">
         <v>1379</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="3">
         <v>97.316896301667796</v>
       </c>
     </row>
@@ -3711,22 +3735,22 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="3">
         <v>7</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="3">
         <v>1754</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="3">
         <v>1869</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="3">
         <v>93.846976993044393</v>
       </c>
     </row>
@@ -3751,22 +3775,22 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="3">
         <v>0</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="3">
         <v>2146</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="3">
         <v>2194</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="3">
         <v>97.812215132178594</v>
       </c>
     </row>
@@ -3811,22 +3835,22 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="3">
         <v>1</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="3">
         <v>3076</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="3">
         <v>3121</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="3">
         <v>98.558154437680201</v>
       </c>
     </row>
@@ -3871,22 +3895,22 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>2</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="A167" s="3">
+        <v>2</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="3">
         <v>1822</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="3">
         <v>1883</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="3">
         <v>96.760488582049902</v>
       </c>
     </row>
@@ -3931,22 +3955,22 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="3">
         <v>3</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="3">
         <v>1218</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="3">
         <v>1361</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="3">
         <v>89.493019838354101</v>
       </c>
     </row>
@@ -3991,22 +4015,22 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="3">
         <v>4</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="3">
         <v>1590</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="3">
         <v>1616</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="3">
         <v>98.391089108910805</v>
       </c>
     </row>
@@ -4051,22 +4075,22 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="3">
         <v>5</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="3">
         <v>2146</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="3">
         <v>2186</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="3">
         <v>98.170173833485805</v>
       </c>
     </row>
@@ -4111,22 +4135,22 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="3">
         <v>6</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="3">
         <v>1274</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="3">
         <v>1379</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="3">
         <v>92.385786802030395</v>
       </c>
     </row>
@@ -4171,22 +4195,22 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="3">
         <v>7</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="3">
         <v>1833</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="3">
         <v>1869</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="3">
         <v>98.073836276083398</v>
       </c>
     </row>
@@ -4231,22 +4255,22 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="3">
         <v>0</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="3">
         <v>2175</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="3">
         <v>2194</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="3">
         <v>99.134001823153994</v>
       </c>
     </row>
@@ -4271,22 +4295,22 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="3">
         <v>1</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="3">
         <v>2315</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="3">
         <v>3121</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="3">
         <v>74.174943928228103</v>
       </c>
     </row>
@@ -4331,22 +4355,22 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>2</v>
-      </c>
-      <c r="B190" t="s">
+      <c r="A190" s="3">
+        <v>2</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="3">
         <v>1845</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="3">
         <v>1883</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="3">
         <v>97.9819437068507</v>
       </c>
     </row>
@@ -4371,42 +4395,42 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="2">
         <v>3</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="2">
         <v>696</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="2">
         <v>1361</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="2">
         <v>51.138868479059497</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="2">
         <v>3</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="2">
         <v>604</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="2">
         <v>1361</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="2">
         <v>44.379132990448198</v>
       </c>
     </row>
@@ -4431,22 +4455,22 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="3">
         <v>4</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="3">
         <v>1574</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="3">
         <v>1616</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="3">
         <v>97.400990099009903</v>
       </c>
     </row>
@@ -4471,22 +4495,22 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="3">
         <v>5</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="3">
         <v>2160</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="3">
         <v>2186</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="3">
         <v>98.810612991765694</v>
       </c>
     </row>
@@ -4511,22 +4535,22 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="3">
         <v>6</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="3">
         <v>836</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="3">
         <v>1379</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="3">
         <v>60.623640319071697</v>
       </c>
     </row>
@@ -4571,22 +4595,22 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="3">
         <v>7</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="3">
         <v>1821</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="3">
         <v>1869</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="3">
         <v>97.431781701444606</v>
       </c>
     </row>
@@ -4671,22 +4695,22 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="3">
         <v>1</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="3">
         <v>1855</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="3">
         <v>3121</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="3">
         <v>59.436078180070403</v>
       </c>
     </row>
@@ -4731,22 +4755,22 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>2</v>
-      </c>
-      <c r="B210" t="s">
+      <c r="A210" s="2">
+        <v>2</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="2">
         <v>812</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="2">
         <v>1883</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="2">
         <v>43.122676579925603</v>
       </c>
     </row>
@@ -4791,22 +4815,22 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="2">
         <v>3</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="2">
         <v>664</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="2">
         <v>1361</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="2">
         <v>48.787656135194702</v>
       </c>
     </row>
@@ -4851,22 +4875,22 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="3">
         <v>4</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="3">
         <v>1378</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="3">
         <v>1616</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="3">
         <v>85.272277227722697</v>
       </c>
     </row>
@@ -4911,22 +4935,22 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="2">
         <v>5</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="2">
         <v>1034</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="2">
         <v>2186</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="2">
         <v>47.301006404391501</v>
       </c>
     </row>
@@ -4971,22 +4995,22 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="3">
         <v>6</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="3">
         <v>710</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="3">
         <v>1379</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="3">
         <v>51.486584481508302</v>
       </c>
     </row>
@@ -5091,22 +5115,22 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="3">
         <v>0</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="3">
         <v>1887</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="3">
         <v>2194</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="3">
         <v>86.007292616225996</v>
       </c>
     </row>
@@ -5151,22 +5175,22 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="2">
         <v>1</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>1305</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="2">
         <v>3121</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="2">
         <v>41.813521307273298</v>
       </c>
     </row>
@@ -5211,22 +5235,22 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>2</v>
-      </c>
-      <c r="B234" t="s">
+      <c r="A234" s="3">
+        <v>2</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="3">
         <v>1764</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="3">
         <v>1883</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="3">
         <v>93.680297397769493</v>
       </c>
     </row>
@@ -5331,22 +5355,22 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="3">
         <v>4</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="3">
         <v>1042</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="3">
         <v>1616</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="3">
         <v>64.480198019801904</v>
       </c>
     </row>
@@ -5511,22 +5535,22 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="3">
         <v>7</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="3">
         <v>1853</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="3">
         <v>1869</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="3">
         <v>99.143927233814793</v>
       </c>
     </row>
@@ -5631,22 +5655,22 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="2">
         <v>1</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="2">
         <v>1410</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="2">
         <v>3121</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="2">
         <v>45.177827619352698</v>
       </c>
     </row>
@@ -5691,22 +5715,22 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>2</v>
-      </c>
-      <c r="B258" t="s">
+      <c r="A258" s="2">
+        <v>2</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="2">
         <v>796</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="2">
         <v>1883</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="2">
         <v>42.272968667020699</v>
       </c>
     </row>
@@ -5751,22 +5775,22 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="3">
         <v>3</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="3">
         <v>844</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="3">
         <v>1361</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="3">
         <v>62.013225569434198</v>
       </c>
     </row>
@@ -5811,22 +5835,22 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="3">
         <v>4</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="3">
         <v>1120</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="3">
         <v>1616</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="3">
         <v>69.306930693069305</v>
       </c>
     </row>
@@ -5931,22 +5955,22 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="3">
         <v>6</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="3">
         <v>854</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E270">
+      <c r="E270" s="3">
         <v>1379</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="3">
         <v>61.928934010152197</v>
       </c>
     </row>
@@ -6051,22 +6075,22 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="3">
         <v>0</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="3">
         <v>1957</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E276">
+      <c r="E276" s="3">
         <v>2194</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="3">
         <v>89.197812215132103</v>
       </c>
     </row>
@@ -6111,22 +6135,22 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="3">
         <v>1</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="3">
         <v>2712</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="3">
         <v>3121</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="3">
         <v>86.895225889138004</v>
       </c>
     </row>
@@ -6171,22 +6195,22 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>2</v>
-      </c>
-      <c r="B282" t="s">
+      <c r="A282" s="3">
+        <v>2</v>
+      </c>
+      <c r="B282" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="3">
         <v>1639</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E282">
+      <c r="E282" s="3">
         <v>1883</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="3">
         <v>87.041954328199594</v>
       </c>
     </row>
@@ -6231,22 +6255,22 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="3">
         <v>3</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="3">
         <v>1348</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E285">
+      <c r="E285" s="3">
         <v>1361</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="3">
         <v>99.044819985304898</v>
       </c>
     </row>
@@ -6271,22 +6295,22 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="3">
         <v>4</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="3">
         <v>1428</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E287">
+      <c r="E287" s="3">
         <v>1616</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="3">
         <v>88.366336633663295</v>
       </c>
     </row>
@@ -6311,22 +6335,22 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="3">
         <v>5</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="3">
         <v>1922</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E289">
+      <c r="E289" s="3">
         <v>2186</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="3">
         <v>87.923147301006395</v>
       </c>
     </row>
@@ -6371,22 +6395,22 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="3">
         <v>6</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="3">
         <v>1375</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E292">
+      <c r="E292" s="3">
         <v>1379</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="3">
         <v>99.7099347353154</v>
       </c>
     </row>
@@ -6411,22 +6435,22 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="3">
         <v>7</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="3">
         <v>1662</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E294">
+      <c r="E294" s="3">
         <v>1869</v>
       </c>
-      <c r="F294">
+      <c r="F294" s="3">
         <v>88.924558587479893</v>
       </c>
     </row>
@@ -6471,22 +6495,22 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="3">
         <v>0</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="3">
         <v>1931</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E297">
+      <c r="E297" s="3">
         <v>2194</v>
       </c>
-      <c r="F297">
+      <c r="F297" s="3">
         <v>88.012762078395596</v>
       </c>
     </row>
@@ -6531,22 +6555,22 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="A300" s="3">
         <v>1</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="3">
         <v>2615</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E300">
+      <c r="E300" s="3">
         <v>3121</v>
       </c>
-      <c r="F300">
+      <c r="F300" s="3">
         <v>83.787247677026599</v>
       </c>
     </row>
@@ -6591,22 +6615,22 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>2</v>
-      </c>
-      <c r="B303" t="s">
+      <c r="A303" s="3">
+        <v>2</v>
+      </c>
+      <c r="B303" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="3">
         <v>1615</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E303">
+      <c r="E303" s="3">
         <v>1883</v>
       </c>
-      <c r="F303">
+      <c r="F303" s="3">
         <v>85.767392458842195</v>
       </c>
     </row>
@@ -6651,22 +6675,22 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="A306" s="3">
         <v>3</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="3">
         <v>778</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E306">
+      <c r="E306" s="3">
         <v>1361</v>
       </c>
-      <c r="F306">
+      <c r="F306" s="3">
         <v>57.163850110212998</v>
       </c>
     </row>
@@ -6711,22 +6735,22 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="A309" s="3">
         <v>4</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="3">
         <v>1368</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E309">
+      <c r="E309" s="3">
         <v>1616</v>
       </c>
-      <c r="F309">
+      <c r="F309" s="3">
         <v>84.653465346534603</v>
       </c>
     </row>
@@ -6771,22 +6795,22 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="3">
         <v>5</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="3">
         <v>2016</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E312">
+      <c r="E312" s="3">
         <v>2186</v>
       </c>
-      <c r="F312">
+      <c r="F312" s="3">
         <v>92.223238792314703</v>
       </c>
     </row>
@@ -6831,22 +6855,22 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="A315" s="3">
         <v>6</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="3">
         <v>787</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E315">
+      <c r="E315" s="3">
         <v>1379</v>
       </c>
-      <c r="F315">
+      <c r="F315" s="3">
         <v>57.070340826686</v>
       </c>
     </row>
@@ -6891,22 +6915,22 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="A318" s="3">
         <v>7</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="3">
         <v>1739</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E318">
+      <c r="E318" s="3">
         <v>1869</v>
       </c>
-      <c r="F318">
+      <c r="F318" s="3">
         <v>93.044408774745804</v>
       </c>
     </row>
@@ -6951,6 +6975,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F320"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>